--- a/biology/Médecine/Mécamylamine/Mécamylamine.xlsx
+++ b/biology/Médecine/Mécamylamine/Mécamylamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9camylamine</t>
+          <t>Mécamylamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La mécamylamine est une amine bicyclique. Un de ses stéréoisomères est un antagoniste partiel des récepteurs nicotiniques d'acétylcholine, développé comme antidépresseur par AstraZeneca et Targacept sous le nom d'Amplixa (TC-5214).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9camylamine</t>
+          <t>Mécamylamine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Propriétés physico-chimiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe 2 énantiomères de cette molécule:
 (S)-(+)-mécamylamine, numéro CAS 107538-05-6
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9camylamine</t>
+          <t>Mécamylamine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La (S)-+-mécamylamine a été étudiée comme traitement d'appoint, et comme monothérapie[3]. Un premier essai a échoué, le produit ne permettant une réduction suffisante du score sur l'échelle de dépression de Montgomery et Åsberg. Les autres essais n'ont pas eu davantage de succès, ce qui a conduit à l'abandon du produit[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La (S)-+-mécamylamine a été étudiée comme traitement d'appoint, et comme monothérapie. Un premier essai a échoué, le produit ne permettant une réduction suffisante du score sur l'échelle de dépression de Montgomery et Åsberg. Les autres essais n'ont pas eu davantage de succès, ce qui a conduit à l'abandon du produit.
 </t>
         </is>
       </c>
